--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5012" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7876" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -193,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -209,6 +249,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -231,26 +279,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true">
-      <c r="A1" t="s" s="14">
+    <row r="1" s="22" customFormat="true">
+      <c r="A1" t="s" s="22">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" t="s" s="22">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" t="s" s="22">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="14">
+      <c r="D1" t="s" s="22">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="E1" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="14">
+      <c r="F1" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="14">
+      <c r="G1" t="s" s="22">
         <v>7</v>
       </c>
     </row>
@@ -278,28 +326,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="14">
+      <c r="C3" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="F3" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -324,28 +372,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="14">
+      <c r="B5" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="14">
+      <c r="E5" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="G5" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -607,10 +655,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -654,28 +702,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="14">
+      <c r="A16" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="14">
+      <c r="B16" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="14">
+      <c r="C16" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="14">
+      <c r="D16" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="14">
+      <c r="E16" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="14">
+      <c r="F16" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="14">
+      <c r="G16" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="14">
+      <c r="H16" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -700,28 +748,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="14">
+      <c r="B18" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="14">
+      <c r="C18" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="14">
+      <c r="D18" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="14">
+      <c r="E18" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="14">
+      <c r="F18" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="14">
+      <c r="G18" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="14">
+      <c r="H18" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="14">
+      <c r="I18" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -925,10 +973,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -972,28 +1020,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="14">
+      <c r="A27" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="14">
+      <c r="B27" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="14">
+      <c r="C27" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="14">
+      <c r="D27" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="14">
+      <c r="E27" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="14">
+      <c r="F27" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="14">
+      <c r="G27" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="14">
+      <c r="H27" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -1018,28 +1066,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="14">
+      <c r="B29" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="14">
+      <c r="C29" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="14">
+      <c r="D29" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="14">
+      <c r="E29" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="14">
+      <c r="F29" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="14">
+      <c r="G29" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="14">
+      <c r="H29" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="14">
+      <c r="I29" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -1301,10 +1349,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1348,28 +1396,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="14">
+      <c r="A40" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="14">
+      <c r="B40" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="14">
+      <c r="C40" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="14">
+      <c r="D40" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="14">
+      <c r="E40" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="14">
+      <c r="F40" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="14">
+      <c r="G40" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="14">
+      <c r="H40" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -1394,28 +1442,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="14">
+      <c r="B42" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="14">
+      <c r="C42" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="14">
+      <c r="D42" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="14">
+      <c r="E42" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="14">
+      <c r="F42" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="14">
+      <c r="G42" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="14">
+      <c r="H42" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="14">
+      <c r="I42" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -1590,10 +1638,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1637,28 +1685,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="14">
+      <c r="A50" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="14">
+      <c r="B50" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="14">
+      <c r="C50" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="14">
+      <c r="D50" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="14">
+      <c r="E50" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="14">
+      <c r="F50" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="14">
+      <c r="G50" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="14">
+      <c r="H50" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -1683,28 +1731,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="14">
+      <c r="B52" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="14">
+      <c r="C52" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="14">
+      <c r="D52" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="14">
+      <c r="E52" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="14">
+      <c r="F52" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="14">
+      <c r="G52" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="14">
+      <c r="H52" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="14">
+      <c r="I52" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -1908,10 +1956,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="J59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="14" t="s">
+      <c r="K59" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1955,28 +2003,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="14">
+      <c r="A61" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="14">
+      <c r="B61" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="14">
+      <c r="C61" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="14">
+      <c r="D61" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="14">
+      <c r="E61" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="14">
+      <c r="F61" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="14">
+      <c r="G61" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="14">
+      <c r="H61" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -2001,28 +2049,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="14">
+      <c r="B63" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="14">
+      <c r="C63" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="14">
+      <c r="D63" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="14">
+      <c r="E63" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="14">
+      <c r="F63" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="14">
+      <c r="G63" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="14">
+      <c r="H63" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="14">
+      <c r="I63" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -2197,10 +2245,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J69" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2244,28 +2292,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="14">
+      <c r="A71" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="14">
+      <c r="B71" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="14">
+      <c r="C71" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="14">
+      <c r="D71" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="14">
+      <c r="E71" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="14">
+      <c r="F71" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="14">
+      <c r="G71" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="14">
+      <c r="H71" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -2290,28 +2338,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="14">
+      <c r="B73" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="14">
+      <c r="C73" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="14">
+      <c r="D73" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="14">
+      <c r="E73" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="14">
+      <c r="F73" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="14">
+      <c r="G73" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="14">
+      <c r="H73" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="14">
+      <c r="I73" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -2573,10 +2621,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="14" t="s">
+      <c r="J82" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="14" t="s">
+      <c r="K82" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2620,28 +2668,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="14">
+      <c r="A84" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="14">
+      <c r="B84" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="14">
+      <c r="C84" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="14">
+      <c r="D84" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="14">
+      <c r="E84" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="14">
+      <c r="F84" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="14">
+      <c r="G84" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="14">
+      <c r="H84" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -2666,28 +2714,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="14">
+      <c r="B86" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="14">
+      <c r="C86" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="14">
+      <c r="D86" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="14">
+      <c r="E86" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="14">
+      <c r="F86" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="14">
+      <c r="G86" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="14">
+      <c r="H86" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="14">
+      <c r="I86" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -2833,10 +2881,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="14" t="s">
+      <c r="J91" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="14" t="s">
+      <c r="K91" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2880,28 +2928,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="14">
+      <c r="A93" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="14">
+      <c r="B93" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="14">
+      <c r="C93" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="14">
+      <c r="D93" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="14">
+      <c r="E93" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="14">
+      <c r="F93" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="14">
+      <c r="G93" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="14">
+      <c r="H93" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -2926,28 +2974,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="14">
+      <c r="B95" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="14">
+      <c r="C95" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="14">
+      <c r="D95" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="14">
+      <c r="E95" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="14">
+      <c r="F95" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="14">
+      <c r="G95" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="14">
+      <c r="H95" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="14">
+      <c r="I95" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -3093,10 +3141,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="14" t="s">
+      <c r="J100" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="14" t="s">
+      <c r="K100" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3140,28 +3188,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="14">
+      <c r="A102" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="14">
+      <c r="B102" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="14">
+      <c r="C102" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="14">
+      <c r="D102" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="14">
+      <c r="E102" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="14">
+      <c r="F102" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="14">
+      <c r="G102" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="14">
+      <c r="H102" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -3186,28 +3234,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="14">
+      <c r="B104" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="14">
+      <c r="C104" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="14">
+      <c r="D104" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="14">
+      <c r="E104" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="14">
+      <c r="F104" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="14">
+      <c r="G104" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="14">
+      <c r="H104" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="14">
+      <c r="I104" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -3382,10 +3430,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="14" t="s">
+      <c r="J110" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K110" s="14" t="s">
+      <c r="K110" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3429,28 +3477,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="14">
+      <c r="A112" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="14">
+      <c r="B112" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="14">
+      <c r="C112" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D112" t="s" s="14">
+      <c r="D112" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="14">
+      <c r="E112" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="14">
+      <c r="F112" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="14">
+      <c r="G112" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="14">
+      <c r="H112" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -3475,28 +3523,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="14">
+      <c r="B114" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="14">
+      <c r="C114" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="14">
+      <c r="D114" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="14">
+      <c r="E114" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="14">
+      <c r="F114" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="14">
+      <c r="G114" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="14">
+      <c r="H114" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="14">
+      <c r="I114" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -3729,10 +3777,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="14" t="s">
+      <c r="J122" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="14" t="s">
+      <c r="K122" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3776,28 +3824,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="14">
+      <c r="A124" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="14">
+      <c r="B124" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="14">
+      <c r="C124" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="14">
+      <c r="D124" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="14">
+      <c r="E124" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="14">
+      <c r="F124" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="14">
+      <c r="G124" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="14">
+      <c r="H124" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -3822,28 +3870,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="14">
+      <c r="B126" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="14">
+      <c r="C126" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="14">
+      <c r="D126" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="14">
+      <c r="E126" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="14">
+      <c r="F126" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="14">
+      <c r="G126" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="14">
+      <c r="H126" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="14">
+      <c r="I126" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -4018,10 +4066,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="14" t="s">
+      <c r="J132" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="14" t="s">
+      <c r="K132" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4065,28 +4113,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="14">
+      <c r="A134" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="14">
+      <c r="B134" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="14">
+      <c r="C134" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D134" t="s" s="14">
+      <c r="D134" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="14">
+      <c r="E134" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="14">
+      <c r="F134" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="14">
+      <c r="G134" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="14">
+      <c r="H134" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -4111,28 +4159,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="14">
+      <c r="B136" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="14">
+      <c r="C136" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="14">
+      <c r="D136" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="14">
+      <c r="E136" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="14">
+      <c r="F136" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="14">
+      <c r="G136" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="14">
+      <c r="H136" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="14">
+      <c r="I136" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -4307,10 +4355,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="14" t="s">
+      <c r="J142" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="14" t="s">
+      <c r="K142" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4354,28 +4402,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="14">
+      <c r="A144" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="14">
+      <c r="B144" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="14">
+      <c r="C144" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="14">
+      <c r="D144" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="14">
+      <c r="E144" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="14">
+      <c r="F144" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="14">
+      <c r="G144" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="14">
+      <c r="H144" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -4400,28 +4448,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="14">
+      <c r="B146" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="14">
+      <c r="C146" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="14">
+      <c r="D146" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="14">
+      <c r="E146" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="14">
+      <c r="F146" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="14">
+      <c r="G146" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="14">
+      <c r="H146" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="14">
+      <c r="I146" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -4596,10 +4644,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="14" t="s">
+      <c r="J152" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="14" t="s">
+      <c r="K152" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4643,28 +4691,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="14">
+      <c r="A154" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="14">
+      <c r="B154" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="14">
+      <c r="C154" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="14">
+      <c r="D154" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="14">
+      <c r="E154" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="14">
+      <c r="F154" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="14">
+      <c r="G154" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="14">
+      <c r="H154" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -4689,28 +4737,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="14">
+      <c r="B156" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="14">
+      <c r="C156" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="14">
+      <c r="D156" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="14">
+      <c r="E156" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="14">
+      <c r="F156" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="14">
+      <c r="G156" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="14">
+      <c r="H156" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="14">
+      <c r="I156" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -4914,10 +4962,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="14" t="s">
+      <c r="J163" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="14" t="s">
+      <c r="K163" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4961,28 +5009,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="14">
+      <c r="A165" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="14">
+      <c r="B165" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="14">
+      <c r="C165" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="14">
+      <c r="D165" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="14">
+      <c r="E165" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="14">
+      <c r="F165" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="14">
+      <c r="G165" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="14">
+      <c r="H165" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -5007,28 +5055,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="14">
+      <c r="B167" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="14">
+      <c r="C167" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="14">
+      <c r="D167" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="14">
+      <c r="E167" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="14">
+      <c r="F167" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="14">
+      <c r="G167" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="14">
+      <c r="H167" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="14">
+      <c r="I167" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -5174,10 +5222,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="14" t="s">
+      <c r="J172" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="14" t="s">
+      <c r="K172" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5221,28 +5269,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="14">
+      <c r="A174" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="14">
+      <c r="B174" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="14">
+      <c r="C174" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="14">
+      <c r="D174" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="14">
+      <c r="E174" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="14">
+      <c r="F174" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="14">
+      <c r="G174" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="14">
+      <c r="H174" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -5267,28 +5315,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="14">
+      <c r="B176" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="14">
+      <c r="C176" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="14">
+      <c r="D176" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="14">
+      <c r="E176" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="14">
+      <c r="F176" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="14">
+      <c r="G176" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="14">
+      <c r="H176" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="14">
+      <c r="I176" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -5434,10 +5482,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="14" t="s">
+      <c r="J181" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="14" t="s">
+      <c r="K181" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5481,28 +5529,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="14">
+      <c r="A183" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="14">
+      <c r="B183" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="14">
+      <c r="C183" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D183" t="s" s="14">
+      <c r="D183" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="14">
+      <c r="E183" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="14">
+      <c r="F183" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="14">
+      <c r="G183" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="14">
+      <c r="H183" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -5527,28 +5575,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="14">
+      <c r="B185" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="14">
+      <c r="C185" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="14">
+      <c r="D185" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="14">
+      <c r="E185" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="14">
+      <c r="F185" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="14">
+      <c r="G185" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="14">
+      <c r="H185" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="14">
+      <c r="I185" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -5607,10 +5655,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="14" t="s">
+      <c r="J187" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K187" s="14" t="s">
+      <c r="K187" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5654,28 +5702,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="14">
+      <c r="A189" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="14">
+      <c r="B189" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="14">
+      <c r="C189" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D189" t="s" s="14">
+      <c r="D189" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="14">
+      <c r="E189" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="14">
+      <c r="F189" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="14">
+      <c r="G189" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="14">
+      <c r="H189" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -5700,28 +5748,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="14">
+      <c r="B191" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="14">
+      <c r="C191" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="14">
+      <c r="D191" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="14">
+      <c r="E191" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="14">
+      <c r="F191" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="14">
+      <c r="G191" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="14">
+      <c r="H191" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="14">
+      <c r="I191" t="s" s="22">
         <v>11</v>
       </c>
     </row>
@@ -5867,10 +5915,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="14" t="s">
+      <c r="J196" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="14" t="s">
+      <c r="K196" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7876" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10740" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="23">
+  <fonts count="31">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -233,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -257,6 +297,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -279,26 +327,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="true">
-      <c r="A1" t="s" s="22">
+    <row r="1" s="30" customFormat="true">
+      <c r="A1" t="s" s="30">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="22">
+      <c r="B1" t="s" s="30">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="22">
+      <c r="C1" t="s" s="30">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="22">
+      <c r="D1" t="s" s="30">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="22">
+      <c r="E1" t="s" s="30">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="22">
+      <c r="F1" t="s" s="30">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="22">
+      <c r="G1" t="s" s="30">
         <v>7</v>
       </c>
     </row>
@@ -326,28 +374,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="22">
+      <c r="A3" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="22">
+      <c r="B3" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="22">
+      <c r="C3" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="22">
+      <c r="D3" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="22">
+      <c r="E3" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="22">
+      <c r="F3" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="22">
+      <c r="G3" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="22">
+      <c r="H3" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -372,28 +420,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="22">
+      <c r="B5" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="22">
+      <c r="C5" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="22">
+      <c r="D5" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="22">
+      <c r="E5" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="22">
+      <c r="F5" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="22">
+      <c r="G5" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="22">
+      <c r="H5" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="22">
+      <c r="I5" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -655,10 +703,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -702,28 +750,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="22">
+      <c r="A16" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="22">
+      <c r="B16" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="22">
+      <c r="C16" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="22">
+      <c r="D16" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="22">
+      <c r="E16" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="22">
+      <c r="F16" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="22">
+      <c r="G16" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="22">
+      <c r="H16" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -748,28 +796,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="22">
+      <c r="B18" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="22">
+      <c r="C18" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="22">
+      <c r="D18" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="22">
+      <c r="E18" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="22">
+      <c r="F18" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="22">
+      <c r="G18" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="22">
+      <c r="H18" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="22">
+      <c r="I18" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -973,10 +1021,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -1020,28 +1068,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="22">
+      <c r="A27" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="22">
+      <c r="B27" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="22">
+      <c r="C27" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="22">
+      <c r="D27" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="22">
+      <c r="E27" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="22">
+      <c r="F27" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="22">
+      <c r="G27" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="22">
+      <c r="H27" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -1066,28 +1114,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="22">
+      <c r="B29" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="22">
+      <c r="C29" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="22">
+      <c r="D29" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="22">
+      <c r="E29" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="22">
+      <c r="F29" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="22">
+      <c r="G29" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="22">
+      <c r="H29" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="22">
+      <c r="I29" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -1349,10 +1397,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K38" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1396,28 +1444,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="22">
+      <c r="A40" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="22">
+      <c r="B40" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="22">
+      <c r="C40" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="22">
+      <c r="D40" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="22">
+      <c r="E40" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="22">
+      <c r="F40" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="22">
+      <c r="G40" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="22">
+      <c r="H40" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -1442,28 +1490,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="22">
+      <c r="B42" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="22">
+      <c r="C42" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="22">
+      <c r="D42" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="22">
+      <c r="E42" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="22">
+      <c r="F42" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="22">
+      <c r="G42" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="22">
+      <c r="H42" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="22">
+      <c r="I42" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -1638,10 +1686,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="22" t="s">
+      <c r="J48" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="22" t="s">
+      <c r="K48" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1685,28 +1733,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="22">
+      <c r="A50" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="22">
+      <c r="B50" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="22">
+      <c r="C50" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="22">
+      <c r="D50" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="22">
+      <c r="E50" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="22">
+      <c r="F50" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="22">
+      <c r="G50" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="22">
+      <c r="H50" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -1731,28 +1779,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="22">
+      <c r="B52" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="22">
+      <c r="C52" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="22">
+      <c r="D52" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="22">
+      <c r="E52" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="22">
+      <c r="F52" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="22">
+      <c r="G52" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="22">
+      <c r="H52" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="22">
+      <c r="I52" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -1956,10 +2004,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="22" t="s">
+      <c r="J59" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="22" t="s">
+      <c r="K59" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -2003,28 +2051,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="22">
+      <c r="A61" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="22">
+      <c r="B61" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="22">
+      <c r="C61" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="22">
+      <c r="D61" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="22">
+      <c r="E61" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="22">
+      <c r="F61" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="22">
+      <c r="G61" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="22">
+      <c r="H61" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -2049,28 +2097,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="22">
+      <c r="B63" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="22">
+      <c r="C63" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="22">
+      <c r="D63" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="22">
+      <c r="E63" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="22">
+      <c r="F63" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="22">
+      <c r="G63" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="22">
+      <c r="H63" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="22">
+      <c r="I63" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -2245,10 +2293,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="22" t="s">
+      <c r="J69" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="22" t="s">
+      <c r="K69" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2292,28 +2340,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="22">
+      <c r="A71" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="22">
+      <c r="B71" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="22">
+      <c r="C71" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="22">
+      <c r="D71" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="22">
+      <c r="E71" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="22">
+      <c r="F71" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="22">
+      <c r="G71" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="22">
+      <c r="H71" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -2338,28 +2386,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="22">
+      <c r="B73" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="22">
+      <c r="C73" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="22">
+      <c r="D73" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="22">
+      <c r="E73" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="22">
+      <c r="F73" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="22">
+      <c r="G73" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="22">
+      <c r="H73" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="22">
+      <c r="I73" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -2621,10 +2669,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="22" t="s">
+      <c r="J82" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="22" t="s">
+      <c r="K82" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2668,28 +2716,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="22">
+      <c r="A84" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="22">
+      <c r="B84" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="22">
+      <c r="C84" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="22">
+      <c r="D84" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="22">
+      <c r="E84" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="22">
+      <c r="F84" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="22">
+      <c r="G84" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="22">
+      <c r="H84" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -2714,28 +2762,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="22">
+      <c r="B86" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="22">
+      <c r="C86" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="22">
+      <c r="D86" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="22">
+      <c r="E86" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="22">
+      <c r="F86" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="22">
+      <c r="G86" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="22">
+      <c r="H86" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="22">
+      <c r="I86" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -2881,10 +2929,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="22" t="s">
+      <c r="J91" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="22" t="s">
+      <c r="K91" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2928,28 +2976,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="22">
+      <c r="A93" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="22">
+      <c r="B93" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="22">
+      <c r="C93" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="22">
+      <c r="D93" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="22">
+      <c r="E93" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="22">
+      <c r="F93" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="22">
+      <c r="G93" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="22">
+      <c r="H93" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -2974,28 +3022,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="22">
+      <c r="B95" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="22">
+      <c r="C95" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="22">
+      <c r="D95" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="22">
+      <c r="E95" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="22">
+      <c r="F95" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="22">
+      <c r="G95" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="22">
+      <c r="H95" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="22">
+      <c r="I95" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -3141,10 +3189,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="22" t="s">
+      <c r="J100" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="22" t="s">
+      <c r="K100" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3188,28 +3236,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="22">
+      <c r="A102" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="22">
+      <c r="B102" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="22">
+      <c r="C102" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="22">
+      <c r="D102" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="22">
+      <c r="E102" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="22">
+      <c r="F102" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="22">
+      <c r="G102" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="22">
+      <c r="H102" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -3234,28 +3282,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="22">
+      <c r="B104" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="22">
+      <c r="C104" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="22">
+      <c r="D104" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="22">
+      <c r="E104" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="22">
+      <c r="F104" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="22">
+      <c r="G104" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="22">
+      <c r="H104" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="22">
+      <c r="I104" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -3430,10 +3478,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="22" t="s">
+      <c r="J110" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K110" s="22" t="s">
+      <c r="K110" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3477,28 +3525,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="22">
+      <c r="A112" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="22">
+      <c r="B112" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="22">
+      <c r="C112" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D112" t="s" s="22">
+      <c r="D112" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="22">
+      <c r="E112" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="22">
+      <c r="F112" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="22">
+      <c r="G112" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="22">
+      <c r="H112" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -3523,28 +3571,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="22">
+      <c r="B114" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="22">
+      <c r="C114" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="22">
+      <c r="D114" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="22">
+      <c r="E114" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="22">
+      <c r="F114" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="22">
+      <c r="G114" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="22">
+      <c r="H114" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="22">
+      <c r="I114" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -3777,10 +3825,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="22" t="s">
+      <c r="J122" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="22" t="s">
+      <c r="K122" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3824,28 +3872,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="22">
+      <c r="A124" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="22">
+      <c r="B124" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="22">
+      <c r="C124" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="22">
+      <c r="D124" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="22">
+      <c r="E124" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="22">
+      <c r="F124" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="22">
+      <c r="G124" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="22">
+      <c r="H124" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -3870,28 +3918,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="22">
+      <c r="B126" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="22">
+      <c r="C126" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="22">
+      <c r="D126" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="22">
+      <c r="E126" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="22">
+      <c r="F126" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="22">
+      <c r="G126" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="22">
+      <c r="H126" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="22">
+      <c r="I126" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -4066,10 +4114,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="22" t="s">
+      <c r="J132" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="22" t="s">
+      <c r="K132" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4113,28 +4161,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="22">
+      <c r="A134" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="22">
+      <c r="B134" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="22">
+      <c r="C134" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D134" t="s" s="22">
+      <c r="D134" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="22">
+      <c r="E134" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="22">
+      <c r="F134" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="22">
+      <c r="G134" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="22">
+      <c r="H134" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -4159,28 +4207,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="22">
+      <c r="B136" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="22">
+      <c r="C136" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="22">
+      <c r="D136" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="22">
+      <c r="E136" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="22">
+      <c r="F136" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="22">
+      <c r="G136" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="22">
+      <c r="H136" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="22">
+      <c r="I136" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4403,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="22" t="s">
+      <c r="J142" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="22" t="s">
+      <c r="K142" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4402,28 +4450,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="22">
+      <c r="A144" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="22">
+      <c r="B144" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="22">
+      <c r="C144" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="22">
+      <c r="D144" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="22">
+      <c r="E144" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="22">
+      <c r="F144" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="22">
+      <c r="G144" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="22">
+      <c r="H144" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -4448,28 +4496,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="22">
+      <c r="B146" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="22">
+      <c r="C146" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="22">
+      <c r="D146" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="22">
+      <c r="E146" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="22">
+      <c r="F146" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="22">
+      <c r="G146" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="22">
+      <c r="H146" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="22">
+      <c r="I146" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -4644,10 +4692,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="22" t="s">
+      <c r="J152" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="22" t="s">
+      <c r="K152" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4691,28 +4739,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="22">
+      <c r="A154" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="22">
+      <c r="B154" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="22">
+      <c r="C154" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="22">
+      <c r="D154" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="22">
+      <c r="E154" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="22">
+      <c r="F154" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="22">
+      <c r="G154" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="22">
+      <c r="H154" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -4737,28 +4785,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="22">
+      <c r="B156" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="22">
+      <c r="C156" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="22">
+      <c r="D156" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="22">
+      <c r="E156" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="22">
+      <c r="F156" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="22">
+      <c r="G156" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="22">
+      <c r="H156" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="22">
+      <c r="I156" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -4962,10 +5010,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="22" t="s">
+      <c r="J163" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="22" t="s">
+      <c r="K163" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -5009,28 +5057,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="22">
+      <c r="A165" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="22">
+      <c r="B165" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="22">
+      <c r="C165" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="22">
+      <c r="D165" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="22">
+      <c r="E165" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="22">
+      <c r="F165" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="22">
+      <c r="G165" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="22">
+      <c r="H165" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -5055,28 +5103,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="22">
+      <c r="B167" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="22">
+      <c r="C167" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="22">
+      <c r="D167" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="22">
+      <c r="E167" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="22">
+      <c r="F167" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="22">
+      <c r="G167" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="22">
+      <c r="H167" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="22">
+      <c r="I167" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -5222,10 +5270,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="22" t="s">
+      <c r="J172" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="22" t="s">
+      <c r="K172" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5269,28 +5317,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="22">
+      <c r="A174" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="22">
+      <c r="B174" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="22">
+      <c r="C174" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="22">
+      <c r="D174" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="22">
+      <c r="E174" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="22">
+      <c r="F174" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="22">
+      <c r="G174" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="22">
+      <c r="H174" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -5315,28 +5363,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="22">
+      <c r="B176" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="22">
+      <c r="C176" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="22">
+      <c r="D176" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="22">
+      <c r="E176" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="22">
+      <c r="F176" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="22">
+      <c r="G176" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="22">
+      <c r="H176" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="22">
+      <c r="I176" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -5482,10 +5530,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="22" t="s">
+      <c r="J181" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="22" t="s">
+      <c r="K181" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5529,28 +5577,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="22">
+      <c r="A183" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="22">
+      <c r="B183" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="22">
+      <c r="C183" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D183" t="s" s="22">
+      <c r="D183" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="22">
+      <c r="E183" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="22">
+      <c r="F183" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="22">
+      <c r="G183" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="22">
+      <c r="H183" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -5575,28 +5623,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="22">
+      <c r="B185" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="22">
+      <c r="C185" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="22">
+      <c r="D185" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="22">
+      <c r="E185" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="22">
+      <c r="F185" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="22">
+      <c r="G185" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="22">
+      <c r="H185" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="22">
+      <c r="I185" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -5655,10 +5703,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="22" t="s">
+      <c r="J187" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K187" s="22" t="s">
+      <c r="K187" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5702,28 +5750,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="22">
+      <c r="A189" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="22">
+      <c r="B189" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="22">
+      <c r="C189" t="s" s="30">
         <v>11</v>
       </c>
-      <c r="D189" t="s" s="22">
+      <c r="D189" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="22">
+      <c r="E189" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="22">
+      <c r="F189" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="22">
+      <c r="G189" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="22">
+      <c r="H189" t="s" s="30">
         <v>16</v>
       </c>
     </row>
@@ -5748,28 +5796,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="22">
+      <c r="B191" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="22">
+      <c r="C191" t="s" s="30">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="22">
+      <c r="D191" t="s" s="30">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="22">
+      <c r="E191" t="s" s="30">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="22">
+      <c r="F191" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="22">
+      <c r="G191" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="22">
+      <c r="H191" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="22">
+      <c r="I191" t="s" s="30">
         <v>11</v>
       </c>
     </row>
@@ -5915,10 +5963,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="J196" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="K196" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10740" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11814" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -273,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -305,6 +320,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -327,26 +345,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="true">
-      <c r="A1" t="s" s="30">
+    <row r="1" s="33" customFormat="true">
+      <c r="A1" t="s" s="33">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="30">
+      <c r="B1" t="s" s="33">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="30">
+      <c r="C1" t="s" s="33">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="30">
+      <c r="D1" t="s" s="33">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="30">
+      <c r="E1" t="s" s="33">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="30">
+      <c r="F1" t="s" s="33">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="30">
+      <c r="G1" t="s" s="33">
         <v>7</v>
       </c>
     </row>
@@ -374,28 +392,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="30">
+      <c r="A3" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="30">
+      <c r="B3" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="30">
+      <c r="C3" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="30">
+      <c r="D3" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="30">
+      <c r="E3" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="30">
+      <c r="F3" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="30">
+      <c r="G3" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="30">
+      <c r="H3" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -420,28 +438,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="30">
+      <c r="B5" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="30">
+      <c r="C5" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="30">
+      <c r="D5" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="30">
+      <c r="E5" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="30">
+      <c r="F5" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="30">
+      <c r="G5" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="30">
+      <c r="H5" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="30">
+      <c r="I5" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -703,10 +721,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -750,28 +768,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="30">
+      <c r="A16" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="30">
+      <c r="B16" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="30">
+      <c r="C16" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="30">
+      <c r="D16" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="30">
+      <c r="E16" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="30">
+      <c r="F16" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="30">
+      <c r="G16" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="30">
+      <c r="H16" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -796,28 +814,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="30">
+      <c r="B18" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="30">
+      <c r="C18" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="30">
+      <c r="D18" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="30">
+      <c r="E18" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="30">
+      <c r="F18" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="30">
+      <c r="G18" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="30">
+      <c r="H18" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="30">
+      <c r="I18" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -1021,10 +1039,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -1068,28 +1086,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="30">
+      <c r="A27" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="30">
+      <c r="B27" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="30">
+      <c r="C27" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="30">
+      <c r="D27" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="30">
+      <c r="E27" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="30">
+      <c r="F27" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="30">
+      <c r="G27" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="30">
+      <c r="H27" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -1114,28 +1132,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="30">
+      <c r="B29" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="30">
+      <c r="C29" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="30">
+      <c r="D29" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="30">
+      <c r="E29" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="30">
+      <c r="F29" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="30">
+      <c r="G29" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="30">
+      <c r="H29" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="30">
+      <c r="I29" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -1397,10 +1415,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1444,28 +1462,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="30">
+      <c r="A40" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="30">
+      <c r="B40" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="30">
+      <c r="C40" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="30">
+      <c r="D40" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="30">
+      <c r="E40" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="30">
+      <c r="F40" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="30">
+      <c r="G40" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="30">
+      <c r="H40" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -1490,28 +1508,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="30">
+      <c r="B42" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="30">
+      <c r="C42" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="30">
+      <c r="D42" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="30">
+      <c r="E42" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="30">
+      <c r="F42" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="30">
+      <c r="G42" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="30">
+      <c r="H42" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="30">
+      <c r="I42" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -1686,10 +1704,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="30" t="s">
+      <c r="J48" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="30" t="s">
+      <c r="K48" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1733,28 +1751,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="30">
+      <c r="A50" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="30">
+      <c r="B50" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="30">
+      <c r="C50" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="30">
+      <c r="D50" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="30">
+      <c r="E50" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="30">
+      <c r="F50" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="30">
+      <c r="G50" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="30">
+      <c r="H50" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -1779,28 +1797,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="30">
+      <c r="B52" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="30">
+      <c r="C52" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="30">
+      <c r="D52" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="30">
+      <c r="E52" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="30">
+      <c r="F52" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="30">
+      <c r="G52" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="30">
+      <c r="H52" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="30">
+      <c r="I52" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -2004,10 +2022,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="30" t="s">
+      <c r="J59" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="30" t="s">
+      <c r="K59" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -2051,28 +2069,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="30">
+      <c r="A61" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="30">
+      <c r="B61" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="30">
+      <c r="C61" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="30">
+      <c r="D61" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="30">
+      <c r="E61" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="30">
+      <c r="F61" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="30">
+      <c r="G61" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="30">
+      <c r="H61" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -2097,28 +2115,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="30">
+      <c r="B63" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="30">
+      <c r="C63" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="30">
+      <c r="D63" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="30">
+      <c r="E63" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="30">
+      <c r="F63" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="30">
+      <c r="G63" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="30">
+      <c r="H63" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="30">
+      <c r="I63" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -2293,10 +2311,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="30" t="s">
+      <c r="J69" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="30" t="s">
+      <c r="K69" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2340,28 +2358,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="30">
+      <c r="A71" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="30">
+      <c r="B71" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="30">
+      <c r="C71" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="30">
+      <c r="D71" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="30">
+      <c r="E71" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="30">
+      <c r="F71" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="30">
+      <c r="G71" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="30">
+      <c r="H71" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -2386,28 +2404,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="30">
+      <c r="B73" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="30">
+      <c r="C73" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="30">
+      <c r="D73" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="30">
+      <c r="E73" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="30">
+      <c r="F73" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="30">
+      <c r="G73" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="30">
+      <c r="H73" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="30">
+      <c r="I73" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -2669,10 +2687,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="30" t="s">
+      <c r="J82" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="30" t="s">
+      <c r="K82" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2716,28 +2734,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="30">
+      <c r="A84" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="30">
+      <c r="B84" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="30">
+      <c r="C84" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="30">
+      <c r="D84" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="30">
+      <c r="E84" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="30">
+      <c r="F84" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="30">
+      <c r="G84" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="30">
+      <c r="H84" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -2762,28 +2780,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="30">
+      <c r="B86" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="30">
+      <c r="C86" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="30">
+      <c r="D86" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="30">
+      <c r="E86" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="30">
+      <c r="F86" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="30">
+      <c r="G86" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="30">
+      <c r="H86" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="30">
+      <c r="I86" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -2929,10 +2947,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="30" t="s">
+      <c r="J91" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="30" t="s">
+      <c r="K91" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2976,28 +2994,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="30">
+      <c r="A93" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="30">
+      <c r="B93" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="30">
+      <c r="C93" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="30">
+      <c r="D93" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="30">
+      <c r="E93" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="30">
+      <c r="F93" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="30">
+      <c r="G93" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="30">
+      <c r="H93" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -3022,28 +3040,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="30">
+      <c r="B95" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="30">
+      <c r="C95" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="30">
+      <c r="D95" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="30">
+      <c r="E95" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="30">
+      <c r="F95" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="30">
+      <c r="G95" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="30">
+      <c r="H95" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="30">
+      <c r="I95" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -3189,10 +3207,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="30" t="s">
+      <c r="J100" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="30" t="s">
+      <c r="K100" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3236,28 +3254,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="30">
+      <c r="A102" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="30">
+      <c r="B102" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="30">
+      <c r="C102" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="30">
+      <c r="D102" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="30">
+      <c r="E102" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="30">
+      <c r="F102" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="30">
+      <c r="G102" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="30">
+      <c r="H102" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -3282,28 +3300,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="30">
+      <c r="B104" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="30">
+      <c r="C104" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="30">
+      <c r="D104" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="30">
+      <c r="E104" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="30">
+      <c r="F104" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="30">
+      <c r="G104" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="30">
+      <c r="H104" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="30">
+      <c r="I104" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -3478,10 +3496,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="30" t="s">
+      <c r="J110" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K110" s="30" t="s">
+      <c r="K110" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3525,28 +3543,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="30">
+      <c r="A112" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="30">
+      <c r="B112" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="30">
+      <c r="C112" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D112" t="s" s="30">
+      <c r="D112" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="30">
+      <c r="E112" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="30">
+      <c r="F112" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="30">
+      <c r="G112" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="30">
+      <c r="H112" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -3571,28 +3589,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="30">
+      <c r="B114" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="30">
+      <c r="C114" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="30">
+      <c r="D114" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="30">
+      <c r="E114" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="30">
+      <c r="F114" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="30">
+      <c r="G114" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="30">
+      <c r="H114" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="30">
+      <c r="I114" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -3825,10 +3843,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="30" t="s">
+      <c r="J122" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="30" t="s">
+      <c r="K122" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3872,28 +3890,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="30">
+      <c r="A124" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="30">
+      <c r="B124" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="30">
+      <c r="C124" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="30">
+      <c r="D124" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="30">
+      <c r="E124" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="30">
+      <c r="F124" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="30">
+      <c r="G124" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="30">
+      <c r="H124" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -3918,28 +3936,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="30">
+      <c r="B126" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="30">
+      <c r="C126" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="30">
+      <c r="D126" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="30">
+      <c r="E126" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="30">
+      <c r="F126" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="30">
+      <c r="G126" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="30">
+      <c r="H126" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="30">
+      <c r="I126" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -4114,10 +4132,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="30" t="s">
+      <c r="J132" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="30" t="s">
+      <c r="K132" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4161,28 +4179,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="30">
+      <c r="A134" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="30">
+      <c r="B134" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="30">
+      <c r="C134" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D134" t="s" s="30">
+      <c r="D134" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="30">
+      <c r="E134" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="30">
+      <c r="F134" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="30">
+      <c r="G134" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="30">
+      <c r="H134" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -4207,28 +4225,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="30">
+      <c r="B136" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="30">
+      <c r="C136" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="30">
+      <c r="D136" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="30">
+      <c r="E136" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="30">
+      <c r="F136" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="30">
+      <c r="G136" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="30">
+      <c r="H136" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="30">
+      <c r="I136" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -4403,10 +4421,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="30" t="s">
+      <c r="J142" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="30" t="s">
+      <c r="K142" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4450,28 +4468,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="30">
+      <c r="A144" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="30">
+      <c r="B144" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="30">
+      <c r="C144" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="30">
+      <c r="D144" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="30">
+      <c r="E144" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="30">
+      <c r="F144" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="30">
+      <c r="G144" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="30">
+      <c r="H144" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -4496,28 +4514,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="30">
+      <c r="B146" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="30">
+      <c r="C146" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="30">
+      <c r="D146" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="30">
+      <c r="E146" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="30">
+      <c r="F146" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="30">
+      <c r="G146" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="30">
+      <c r="H146" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="30">
+      <c r="I146" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -4692,10 +4710,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="30" t="s">
+      <c r="J152" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="30" t="s">
+      <c r="K152" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4739,28 +4757,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="30">
+      <c r="A154" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="30">
+      <c r="B154" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="30">
+      <c r="C154" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="30">
+      <c r="D154" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="30">
+      <c r="E154" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="30">
+      <c r="F154" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="30">
+      <c r="G154" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="30">
+      <c r="H154" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -4785,28 +4803,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="30">
+      <c r="B156" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="30">
+      <c r="C156" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="30">
+      <c r="D156" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="30">
+      <c r="E156" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="30">
+      <c r="F156" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="30">
+      <c r="G156" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="30">
+      <c r="H156" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="30">
+      <c r="I156" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -5010,10 +5028,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="30" t="s">
+      <c r="J163" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="30" t="s">
+      <c r="K163" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -5057,28 +5075,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="30">
+      <c r="A165" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="30">
+      <c r="B165" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="30">
+      <c r="C165" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="30">
+      <c r="D165" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="30">
+      <c r="E165" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="30">
+      <c r="F165" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="30">
+      <c r="G165" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="30">
+      <c r="H165" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -5103,28 +5121,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="30">
+      <c r="B167" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="30">
+      <c r="C167" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="30">
+      <c r="D167" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="30">
+      <c r="E167" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="30">
+      <c r="F167" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="30">
+      <c r="G167" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="30">
+      <c r="H167" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="30">
+      <c r="I167" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -5270,10 +5288,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="30" t="s">
+      <c r="J172" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="30" t="s">
+      <c r="K172" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5317,28 +5335,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="30">
+      <c r="A174" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="30">
+      <c r="B174" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="30">
+      <c r="C174" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="30">
+      <c r="D174" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="30">
+      <c r="E174" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="30">
+      <c r="F174" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="30">
+      <c r="G174" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="30">
+      <c r="H174" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -5363,28 +5381,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="30">
+      <c r="B176" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="30">
+      <c r="C176" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="30">
+      <c r="D176" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="30">
+      <c r="E176" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="30">
+      <c r="F176" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="30">
+      <c r="G176" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="30">
+      <c r="H176" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="30">
+      <c r="I176" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -5530,10 +5548,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="30" t="s">
+      <c r="J181" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="30" t="s">
+      <c r="K181" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5577,28 +5595,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="30">
+      <c r="A183" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="30">
+      <c r="B183" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="30">
+      <c r="C183" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D183" t="s" s="30">
+      <c r="D183" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="30">
+      <c r="E183" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="30">
+      <c r="F183" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="30">
+      <c r="G183" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="30">
+      <c r="H183" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -5623,28 +5641,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="30">
+      <c r="B185" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="30">
+      <c r="C185" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="30">
+      <c r="D185" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="30">
+      <c r="E185" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="30">
+      <c r="F185" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="30">
+      <c r="G185" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="30">
+      <c r="H185" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="30">
+      <c r="I185" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -5703,10 +5721,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="30" t="s">
+      <c r="J187" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K187" s="30" t="s">
+      <c r="K187" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5750,28 +5768,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="30">
+      <c r="A189" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="30">
+      <c r="B189" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="30">
+      <c r="C189" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D189" t="s" s="30">
+      <c r="D189" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="30">
+      <c r="E189" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="30">
+      <c r="F189" t="s" s="33">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="30">
+      <c r="G189" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="30">
+      <c r="H189" t="s" s="33">
         <v>16</v>
       </c>
     </row>
@@ -5796,28 +5814,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="30">
+      <c r="B191" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="30">
+      <c r="C191" t="s" s="33">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="30">
+      <c r="D191" t="s" s="33">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="30">
+      <c r="E191" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="30">
+      <c r="F191" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="30">
+      <c r="G191" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="30">
+      <c r="H191" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="30">
+      <c r="I191" t="s" s="33">
         <v>11</v>
       </c>
     </row>
@@ -5963,10 +5981,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="30" t="s">
+      <c r="J196" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="30" t="s">
+      <c r="K196" s="33" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
